--- a/storage/app/template/template_import.xlsx
+++ b/storage/app/template/template_import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Title</t>
   </si>
@@ -32,13 +32,25 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
     <t>Dragon Book</t>
   </si>
   <si>
     <t>QTY</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>Magazine Color</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Care 101</t>
+  </si>
+  <si>
+    <t>Health</t>
   </si>
 </sst>
 </file>
@@ -367,11 +379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,18 +401,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
